--- a/artigos_sciencedirect/SelecaoFase1 - Lidia.xlsx
+++ b/artigos_sciencedirect/SelecaoFase1 - Lidia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Mestrado\slr\artigos_sciencedirect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Mestrado2\slr\artigos_sciencedirect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D891E45C-E6E6-439E-8960-31CA5FB9C61E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBBEEB4-20D5-4B40-8608-7D1963B7EE53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1A65388C-AACB-4B7E-B60C-47E18581C927}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1A65388C-AACB-4B7E-B60C-47E18581C927}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>type</t>
   </si>
@@ -619,14 +619,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7271E0F0-47A0-43BD-A095-D2B08052F9FE}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
     <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
@@ -673,6 +673,9 @@
       <c r="D2">
         <v>2018</v>
       </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
@@ -692,6 +695,9 @@
       <c r="D3">
         <v>2018</v>
       </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="J3" s="6" t="s">
         <v>23</v>
@@ -709,6 +715,9 @@
       <c r="D4">
         <v>2014</v>
       </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="J4" s="6" t="s">
         <v>24</v>
@@ -726,6 +735,9 @@
       <c r="D5">
         <v>2014</v>
       </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="J5" s="6" t="s">
         <v>25</v>
@@ -743,6 +755,9 @@
       <c r="D6" s="4">
         <v>2019</v>
       </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="J6" s="6" t="s">
         <v>26</v>
@@ -759,6 +774,9 @@
       </c>
       <c r="D7">
         <v>2015</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
       </c>
       <c r="G7" s="1"/>
       <c r="J7" s="6" t="s">
@@ -801,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68908C55-DE2A-492C-BDB7-D8E3A1520BC2}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
